--- a/console/Networking/kubernetesExcel/detail.xlsx
+++ b/console/Networking/kubernetesExcel/detail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -109,9 +104,6 @@
     </r>
   </si>
   <si>
-    <t>Working Node Group</t>
-  </si>
-  <si>
     <t>detail_i18nKey_7</t>
   </si>
   <si>
@@ -153,9 +145,6 @@
   </si>
   <si>
     <t>detail_i18nKey_11</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <r>
@@ -265,19 +254,27 @@
     </r>
   </si>
   <si>
-    <t>View Certificate</t>
+    <t>Delete cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kubectl Client Configuration</t>
+    <t>Credentials</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disenable</t>
+    <t>Working NodeGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Delete cluster</t>
+    <t>Credentials For kubectl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,6 +309,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,11 +348,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -677,17 +697,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -695,9 +716,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -708,8 +729,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -719,7 +740,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -730,7 +751,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -741,7 +762,7 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -752,63 +773,63 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
